--- a/prompt_engineering/experiments/metadata_llama32_3B_gpt4o.xlsx
+++ b/prompt_engineering/experiments/metadata_llama32_3B_gpt4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,180 +434,481 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Examen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>N° du prélèvement</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Panel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Origine du prélèvement</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type de prélèvement</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qualité du séquençage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>% de cellules</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM03355', 'N° du prélèvement': '24CU550062-2ebus', 'Panel': 'TP', 'Origine du prélèvement': 'CurePath', 'Type de prélèvement': 'Carcinome non à petites cellules NOS', 'Qualité du séquençage': 'Optimale', '% de cellules': 20}</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04099', 'N° du prélèvement': '24CU062291-frottis2', 'Panel': 'OST', 'Origine du prélèvement': 'CurePath', 'Type de prélèvement': 'PF1', 'Qualité du séquençage': 'Optimale', '% de cellules': 10}</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>24CU550062-2ebus</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Carcinome non à petites cellules NOS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Examen</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N° du prélèvement</t>
+          <t>24CU052383</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panel</t>
+          <t>OST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Origine du prélèvement</t>
+          <t>Curepath</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Type de prélèvement</t>
+          <t>Adénocarcinome TTF1+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Qualité du séquençage</t>
+          <t>Optimale</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>% de cellules</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM03839', 'N° du prélèvement': '24EC09559 frottis 1', 'Panel': 'TP', 'Origine du prélèvement': 'Erasme', 'Type de prélèvement': 'PF2', 'Qualité du séquençage': 'Optimale', '% de cellules': 70}</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM03839', 'N° du prélèvement': '24EC09559 frottis 1', 'Panel': 'CHP', 'Origine du prélèvement': 'Erasme', 'Type de prélèvement': 'PF2', 'Qualité du séquençage': 'Optimale', '% de cellules': 70}</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>24CU002162-4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Curepath</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Adénocarcinome colorectal métastatique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Optimale (coverage moyen &gt; 1000x)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04099', 'N° du prélèvement': '24CU062291-frottis2', 'Panel': 'TP', 'Origine du prélèvement': 'CurePath', 'Type de prélèvement': 'PF1', 'Qualité du séquençage': 'Optimale', '% de cellules': 10}</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>24EM03462</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24219576 1.1. Foie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CMP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Métastase hépatique d’un adénocarcinome mammaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04107', 'N° du prélèvement': '24CU062294-1', 'Panel': 'TP', 'Origine du prélèvement': 'CurePath', 'Type de prélèvement': 'PF1 oncocytaire', 'Qualité du séquençage': 'Optimale', '% de cellules': 10}</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>24EM03839</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24EC09559 frottis 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Erasme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PF2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04337', 'N° du prélèvement': '2431646-1.1', 'Panel': 'TP', 'Origine du prélèvement': 'CMP Pathology', 'Type de prélèvement': 'masse gastrique', 'Qualité du séquençage': 'Optimale', '% de cellules': 70}</t>
+          <t>24EM04099</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04337', 'N° du prélèvement': '2431646-1.1', 'Panel': 'OST', 'Origine du prélèvement': 'Centre d’Anatomie Pathologique H.U.B. 7000 MONS', 'Type de prélèvement': 'PF1', 'Qualité du séquençage': 'Optimale', '% de cellules': 10}</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>24CU062291-frottis2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PF1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM04347', 'N° du prélèvement': '23CU032757-1.02', 'Panel': 'TP', 'Origine du prélèvement': 'CurePath', 'Type de prélèvement': 'carcinome urothélial invasif', 'Qualité du séquençage': 'Optimale', '% de cellules': 50}</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>24EM04337</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2431646-1.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CMP Pathology</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>masse gastrique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM03308', 'N° du prélèvement': '24218507-1.1', 'Panel': 'TP', 'Origine du prélèvement': 'CMP', 'Type de prélèvement': 'Adénocarcinome pulmonaire', 'Qualité du séquençage': 'Optimale', '% de cellules': 50}</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>24EM04347</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23CU032757-1.02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>carcinome urothélial invasif</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Examen': '24EM03352', 'N° du prélèvement': '24MH9794', 'Panel': 'OST', 'Origine du prélèvement': 'Centre Hospitalier de Mouscron', 'Type de prélèvement': 'Adénocarcinome lieberkühnien', 'Qualité du séquençage': 'Optimale', '% de cellules': 20}</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>24EM03451</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24BB11466</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HUB</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tumeur de la granulosa</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24EM03460</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24MH9721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24EM03308</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24218507-1.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CMP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adénocarcinome pulmonaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24EM03352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24MH9794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
